--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1885892.288960712</v>
+        <v>-1888753.102753005</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,23 +659,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>171.0219816890759</v>
       </c>
       <c r="U2" t="n">
-        <v>225.403139763615</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>48.42302917054076</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>23.11579600560802</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>114.595193747834</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>215.6107141957085</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.37611572606336</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.685628393882326</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,59 +902,59 @@
         <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>72.63544656439296</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>212.568965117905</v>
+      </c>
+      <c r="V5" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>220.7483117016941</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>141.2006050351108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>97.57643197280053</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>55.79891947981528</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>283.175640834825</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>138.4971003924958</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814999</v>
+        <v>73.18818411815002</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696366</v>
+        <v>93.83392671696367</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906611</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>201.9799026361622</v>
       </c>
       <c r="W9" t="n">
-        <v>38.98791213941973</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>84.19893786409762</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>50.40393900611948</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>172.3645574474243</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892453</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>159.3471710336456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>41.1667312069662</v>
+        <v>111.6910841413357</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>32.27552175740353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>13.53601007884757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>220.2028736325136</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.5667167289874</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.4706806359738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.207802455916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3554,10 +3554,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.79792428368</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4202677165019</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165019</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="F2" t="n">
+        <v>300.4385797407429</v>
+      </c>
+      <c r="G2" t="n">
         <v>287.4747669672985</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>882.1060435524128</v>
       </c>
       <c r="U2" t="n">
-        <v>827.1755808508581</v>
+        <v>882.1060435524128</v>
       </c>
       <c r="V2" t="n">
-        <v>827.1755808508581</v>
+        <v>882.1060435524128</v>
       </c>
       <c r="W2" t="n">
-        <v>827.1755808508581</v>
+        <v>615.7283869852348</v>
       </c>
       <c r="X2" t="n">
-        <v>827.1755808508581</v>
+        <v>615.7283869852348</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.79792428368</v>
+        <v>566.8162363079209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>328.3776437187219</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="C3" t="n">
-        <v>328.3776437187219</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="D3" t="n">
-        <v>328.3776437187219</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E3" t="n">
-        <v>328.3776437187219</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8430857456068</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>44.44639929467405</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>44.44639929467405</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278689</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
         <v>739.52866342936</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>790.4665006524564</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>790.4665006524564</v>
+        <v>818.7310360151296</v>
       </c>
       <c r="V3" t="n">
-        <v>790.4665006524564</v>
+        <v>583.5789277833869</v>
       </c>
       <c r="W3" t="n">
-        <v>536.2291439242547</v>
+        <v>329.3415710551853</v>
       </c>
       <c r="X3" t="n">
-        <v>328.3776437187219</v>
+        <v>329.3415710551853</v>
       </c>
       <c r="Y3" t="n">
-        <v>328.3776437187219</v>
+        <v>121.5812722902314</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.1036973103666</v>
+        <v>473.0482164613713</v>
       </c>
       <c r="C4" t="n">
-        <v>318.1036973103666</v>
+        <v>473.0482164613713</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>322.9315770490356</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4489,7 +4489,7 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1033.263483919092</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1033.263483919092</v>
+        <v>919.3098318468872</v>
       </c>
       <c r="T4" t="n">
-        <v>1033.263483919092</v>
+        <v>693.8407956049015</v>
       </c>
       <c r="U4" t="n">
-        <v>1033.263483919092</v>
+        <v>693.8407956049015</v>
       </c>
       <c r="V4" t="n">
-        <v>1033.263483919092</v>
+        <v>693.8407956049015</v>
       </c>
       <c r="W4" t="n">
-        <v>766.885827351914</v>
+        <v>693.8407956049015</v>
       </c>
       <c r="X4" t="n">
-        <v>538.8962764538967</v>
+        <v>693.8407956049015</v>
       </c>
       <c r="Y4" t="n">
-        <v>318.1036973103666</v>
+        <v>473.0482164613713</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.1670622275112</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C5" t="n">
-        <v>634.1670622275112</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D5" t="n">
-        <v>367.7894056603332</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165019</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672985</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4568,19 +4568,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946892</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946892</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946892</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946892</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.1670622275112</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491.0191073156138</v>
+        <v>429.7531369569381</v>
       </c>
       <c r="C6" t="n">
-        <v>316.5660780344868</v>
+        <v>429.7531369569381</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
         <v>21.0971104001205</v>
@@ -4647,22 +4647,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4680,16 +4680,16 @@
         <v>887.8833378166546</v>
       </c>
       <c r="V6" t="n">
-        <v>887.8833378166546</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W6" t="n">
-        <v>633.645981088453</v>
+        <v>429.7531369569381</v>
       </c>
       <c r="X6" t="n">
-        <v>633.645981088453</v>
+        <v>429.7531369569381</v>
       </c>
       <c r="Y6" t="n">
-        <v>491.0191073156138</v>
+        <v>429.7531369569381</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.6591628978988</v>
+        <v>666.4200205862963</v>
       </c>
       <c r="C7" t="n">
-        <v>119.6591628978988</v>
+        <v>666.4200205862963</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>516.3033811739606</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>516.3033811739606</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>369.4134336760502</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>200.8440730310537</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012044</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388467</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="V7" t="n">
-        <v>788.4778634388467</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="W7" t="n">
-        <v>522.1002068716687</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="X7" t="n">
-        <v>522.1002068716687</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="Y7" t="n">
-        <v>301.3076277281385</v>
+        <v>848.0684854165361</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1862.620034255365</v>
+        <v>1398.55404243631</v>
       </c>
       <c r="C8" t="n">
-        <v>1493.657517314953</v>
+        <v>1029.591525495898</v>
       </c>
       <c r="D8" t="n">
-        <v>1135.391818708203</v>
+        <v>671.3258268891475</v>
       </c>
       <c r="E8" t="n">
-        <v>849.355817864945</v>
+        <v>671.3258268891475</v>
       </c>
       <c r="F8" t="n">
-        <v>842.4103171157416</v>
+        <v>260.3399220995399</v>
       </c>
       <c r="G8" t="n">
-        <v>426.5096311797985</v>
+        <v>120.4438610970189</v>
       </c>
       <c r="H8" t="n">
         <v>120.4438610970189</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181688</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229159</v>
+        <v>166.4989367229161</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677488</v>
+        <v>397.0601716677492</v>
       </c>
       <c r="L8" t="n">
         <v>719.9935330937572</v>
@@ -4814,40 +4814,40 @@
         <v>1110.988557721576</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.92409899942</v>
+        <v>1512.924098999419</v>
       </c>
       <c r="O8" t="n">
         <v>1879.125171830555</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271722</v>
+        <v>2157.168314271721</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257582</v>
+        <v>2317.794388257581</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590844</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590844</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.216769844003</v>
+        <v>2116.216769844002</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.620034255365</v>
+        <v>2116.216769844002</v>
       </c>
       <c r="V8" t="n">
-        <v>1862.620034255365</v>
+        <v>1785.153882500431</v>
       </c>
       <c r="W8" t="n">
-        <v>1862.620034255365</v>
+        <v>1785.153882500431</v>
       </c>
       <c r="X8" t="n">
-        <v>1862.620034255365</v>
+        <v>1785.153882500431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1862.620034255365</v>
+        <v>1785.153882500431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>907.2638438492248</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
-        <v>732.8108145680978</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>583.8764049068466</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>424.6389499013911</v>
+        <v>448.6756259307508</v>
       </c>
       <c r="F9" t="n">
-        <v>278.1043919282761</v>
+        <v>302.1410679576358</v>
       </c>
       <c r="G9" t="n">
-        <v>141.298146550366</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181688</v>
+        <v>70.55307842117656</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181688</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J9" t="n">
-        <v>223.9894559067841</v>
+        <v>99.15933091977931</v>
       </c>
       <c r="K9" t="n">
-        <v>392.119430328287</v>
+        <v>385.0131924219307</v>
       </c>
       <c r="L9" t="n">
-        <v>967.759909927021</v>
+        <v>657.4072327143449</v>
       </c>
       <c r="M9" t="n">
-        <v>1304.987775123685</v>
+        <v>994.6350979110086</v>
       </c>
       <c r="N9" t="n">
-        <v>1688.43379013603</v>
+        <v>1355.197026162345</v>
       </c>
       <c r="O9" t="n">
-        <v>1996.057717796918</v>
+        <v>1662.820953823232</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106034</v>
+        <v>2205.661351085886</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590844</v>
+        <v>2307.861496570697</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590844</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160698</v>
+        <v>2188.151005160697</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.72181866103</v>
+        <v>1993.721818661029</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505279</v>
+        <v>1765.624817505278</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.472709273537</v>
+        <v>1561.604713832387</v>
       </c>
       <c r="W9" t="n">
-        <v>1491.090979839779</v>
+        <v>1307.367357104185</v>
       </c>
       <c r="X9" t="n">
-        <v>1283.239479634247</v>
+        <v>1099.515856898653</v>
       </c>
       <c r="Y9" t="n">
-        <v>1075.479180869293</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.8628528817028</v>
+        <v>597.508604415927</v>
       </c>
       <c r="C10" t="n">
-        <v>342.9266699537959</v>
+        <v>428.5724214880202</v>
       </c>
       <c r="D10" t="n">
-        <v>342.9266699537959</v>
+        <v>278.4557820756844</v>
       </c>
       <c r="E10" t="n">
-        <v>342.9266699537959</v>
+        <v>193.4063498897272</v>
       </c>
       <c r="F10" t="n">
-        <v>196.0367224558856</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="G10" t="n">
-        <v>196.0367224558856</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181688</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181688</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J10" t="n">
-        <v>65.8954080190955</v>
+        <v>65.89540801909544</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736018</v>
+        <v>227.5779039736017</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632616</v>
+        <v>490.0022680632615</v>
       </c>
       <c r="M10" t="n">
-        <v>777.081088479405</v>
+        <v>777.0810884794048</v>
       </c>
       <c r="N10" t="n">
         <v>1062.768432620619</v>
@@ -4996,16 +4996,16 @@
         <v>1033.841557452054</v>
       </c>
       <c r="V10" t="n">
-        <v>982.9284877489031</v>
+        <v>779.1570692461668</v>
       </c>
       <c r="W10" t="n">
-        <v>693.5113177119425</v>
+        <v>779.1570692461668</v>
       </c>
       <c r="X10" t="n">
-        <v>693.5113177119425</v>
+        <v>779.1570692461668</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.5113177119425</v>
+        <v>779.1570692461668</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5203,46 +5203,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797692</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487562</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510503</v>
+        <v>2272.857469997004</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854701</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648814</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611853</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3274571940295</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5348780504994</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5285,28 +5285,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.803297079993</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043032</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,7 +5513,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424041</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>231.7628415621006</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6452,46 +6452,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6871,25 +6871,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311325</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.78351343583194</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>118.9130172531804</v>
       </c>
       <c r="L9" t="n">
-        <v>306.3095346528481</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>23.11523915253423</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864772</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>25.74502811466746</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>337.8149094855128</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>80.24579383704281</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>45.040892879864</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>66.36248435539153</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.9709121168618</v>
+        <v>140.4465591824923</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>205.0486432732472</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>31.93476969131439</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>28.95742156328143</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.23897475306333</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1319542.49604142</v>
+        <v>1319542.496041421</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1319542.496041421</v>
+        <v>1319542.49604142</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716088</v>
+        <v>84626.07044716085</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26335,7 +26335,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
         <v>100893.3249612508</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512986</v>
+        <v>331437.5228512984</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424107</v>
+        <v>563905.7843424111</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201214</v>
+        <v>99845.14336201208</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569556</v>
+        <v>147342.6769569557</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165439.1551052516</v>
+        <v>165439.1551052515</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>152658.810887653</v>
+        <v>152658.8108876531</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744231</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744268</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744299</v>
+        <v>8727.256391744351</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744306</v>
+        <v>8727.25639174434</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744329</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744335</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744248</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="L4" t="n">
+        <v>16718.11565483776</v>
+      </c>
+      <c r="M4" t="n">
         <v>16718.11565483777</v>
       </c>
-      <c r="M4" t="n">
-        <v>16718.11565483778</v>
-      </c>
       <c r="N4" t="n">
+        <v>16718.11565483773</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16718.11565483772</v>
+      </c>
+      <c r="P4" t="n">
         <v>16718.11565483776</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16718.11565483782</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16718.11565483777</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543586</v>
+        <v>88290.79546543583</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-823948.8684535502</v>
+        <v>-824308.9514692675</v>
       </c>
       <c r="C6" t="n">
         <v>-208066.1490136199</v>
       </c>
       <c r="D6" t="n">
-        <v>-469756.907971352</v>
+        <v>-469756.9079713519</v>
       </c>
       <c r="E6" t="n">
-        <v>-572862.2455968113</v>
+        <v>-572896.9835222474</v>
       </c>
       <c r="F6" t="n">
-        <v>-8956.461254400609</v>
+        <v>-8991.199179836287</v>
       </c>
       <c r="G6" t="n">
-        <v>-8956.461254400609</v>
+        <v>-8991.199179836432</v>
       </c>
       <c r="H6" t="n">
-        <v>-8956.461254400667</v>
+        <v>-8991.199179836418</v>
       </c>
       <c r="I6" t="n">
-        <v>-8956.461254400652</v>
+        <v>-8991.199179836374</v>
       </c>
       <c r="J6" t="n">
-        <v>-77955.61567351469</v>
+        <v>-77990.35359895046</v>
       </c>
       <c r="K6" t="n">
-        <v>-8956.461254400594</v>
+        <v>-8991.19917983636</v>
       </c>
       <c r="L6" t="n">
         <v>-117097.1536377298</v>
       </c>
       <c r="M6" t="n">
-        <v>-164594.6872326733</v>
+        <v>-164594.6872326734</v>
       </c>
       <c r="N6" t="n">
-        <v>-17252.01027571771</v>
+        <v>-17252.01027571765</v>
       </c>
       <c r="O6" t="n">
-        <v>-17252.01027571775</v>
+        <v>-17252.01027571769</v>
       </c>
       <c r="P6" t="n">
-        <v>-17252.01027571769</v>
+        <v>-17252.01027571766</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896804</v>
+        <v>885.8132865896802</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>581.455029897711</v>
+        <v>581.4550298977107</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.758272820202</v>
+        <v>271.7582728202019</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519934</v>
+        <v>482.1622137519936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962048</v>
+        <v>317.7411498962045</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019377</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962047</v>
+        <v>317.7411498962045</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962048</v>
+        <v>317.7411498962045</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019373</v>
+        <v>591.2532582019377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>41.26773391414733</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.80600799589757</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>10.24377330784614</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>106.1284871576006</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>198.0335358497114</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>309.2949235078688</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>38.57920276037748</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>30.94667145922554</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>64.48209074219358</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>51.03904104541182</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>96.5832398560415</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>98.75472923743678</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>273.2445786840877</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.7963092690661</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,16 +27989,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>30.8206845132631</v>
       </c>
       <c r="W9" t="n">
-        <v>212.7070710214999</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>62.23502478247156</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
         <v>107.4132560413786</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7337043177085</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29569,13 +29569,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551476</v>
+        <v>3.561058438551475</v>
       </c>
       <c r="H8" t="n">
         <v>36.46968973381531</v>
@@ -31522,37 +31522,37 @@
         <v>137.2877054522559</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490086</v>
+        <v>302.2403836490085</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528927</v>
+        <v>452.9799873528926</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417125</v>
+        <v>561.9617295417124</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483023</v>
+        <v>625.2907025483022</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368368</v>
+        <v>635.4085598368366</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884905</v>
+        <v>599.9982849884904</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867509</v>
+        <v>512.0846547867508</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.554249456126</v>
+        <v>384.5542494561259</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406594</v>
+        <v>223.6923371406593</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849184</v>
+        <v>81.14761916849183</v>
       </c>
       <c r="T8" t="n">
-        <v>15.5885333147591</v>
+        <v>15.58853331475909</v>
       </c>
       <c r="U8" t="n">
         <v>0.284884675084118</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.90533423907969</v>
+        <v>1.905334239079689</v>
       </c>
       <c r="H9" t="n">
-        <v>18.4015175195328</v>
+        <v>18.40151751953279</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234898</v>
+        <v>65.60032358234896</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474369</v>
+        <v>180.0123019474368</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657761</v>
+        <v>307.669695965776</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247371</v>
+        <v>413.699875024737</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913758</v>
+        <v>482.7682411913756</v>
       </c>
       <c r="N9" t="n">
-        <v>495.545680013976</v>
+        <v>495.5456800139759</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059471</v>
+        <v>453.327484505947</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730331</v>
+        <v>363.835272373033</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726987</v>
+        <v>243.2142442726986</v>
       </c>
       <c r="R9" t="n">
         <v>118.2978574053162</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799334</v>
+        <v>35.39074781799333</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150151</v>
+        <v>7.679834060150148</v>
       </c>
       <c r="U9" t="n">
         <v>0.1253509367815586</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719096</v>
+        <v>1.597368221719095</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401161</v>
+        <v>14.2020556440116</v>
       </c>
       <c r="I10" t="n">
         <v>48.03721888587972</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755401</v>
+        <v>112.93393327554</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051822</v>
+        <v>185.5851443051821</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817645</v>
+        <v>237.4850899817644</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191124</v>
+        <v>250.3947295191123</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108869</v>
+        <v>244.4409025108868</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753501</v>
+        <v>225.78073737535</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522804</v>
+        <v>193.1944256522803</v>
       </c>
       <c r="Q10" t="n">
         <v>133.7578062750417</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020587</v>
+        <v>71.82348386020584</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577732</v>
+        <v>27.83777164577731</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527043</v>
+        <v>6.825118765527042</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013258</v>
+        <v>0.08712917573013257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,19 +32081,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>663.4727207607269</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>741.1502463817021</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>263.7590256391496</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>585.3368606136115</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34784,10 +34784,10 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>238.3094620181793</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.938547087769</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>121.1944791223223</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079121</v>
+        <v>232.890136307912</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717253</v>
+        <v>326.1953145717252</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210296</v>
+        <v>394.9444693210295</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402459</v>
+        <v>405.9954962402457</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668037</v>
+        <v>369.9000735668036</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314813</v>
+        <v>280.8516590314812</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816765</v>
+        <v>162.2485595816764</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527238</v>
+        <v>8.106799326527181</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>179.265710621179</v>
+        <v>53.17467528077015</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914171</v>
+        <v>288.7412742445974</v>
       </c>
       <c r="L9" t="n">
-        <v>581.455029897711</v>
+        <v>275.1454952448628</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693574</v>
+        <v>340.6342072693573</v>
       </c>
       <c r="N9" t="n">
-        <v>387.319207083177</v>
+        <v>364.2039679306426</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615027</v>
+        <v>310.7312400615025</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587028</v>
+        <v>548.32363359864</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866772</v>
+        <v>103.2324701866771</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267307</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886728</v>
+        <v>19.57475315886725</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792993</v>
+        <v>163.3156524792992</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420806</v>
+        <v>265.0751152420805</v>
       </c>
       <c r="M10" t="n">
-        <v>289.978606480953</v>
+        <v>289.9786064809529</v>
       </c>
       <c r="N10" t="n">
         <v>288.5730748901154</v>
@@ -35349,7 +35349,7 @@
         <v>190.4729849171738</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334735</v>
+        <v>47.59576302334732</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191262</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35656,7 +35656,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>520.8764763162825</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35881,10 +35881,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>609.8085342983688</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>132.4173135558163</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>442.7406161691671</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
